--- a/downloaded_files/SBES251_Lecture-35361.xlsx
+++ b/downloaded_files/SBES251_Lecture-35361.xlsx
@@ -156,7 +156,7 @@
     <x:t>زياد خالد عزت عبد المنعم</x:t>
   </x:si>
   <x:si>
-    <x:t>Zeyad khaled ezzat abdel monem</x:t>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4240018</x:t>

--- a/downloaded_files/SBES251_Lecture-35361.xlsx
+++ b/downloaded_files/SBES251_Lecture-35361.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
-    <x:t>1230151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمزة يونس حمزة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed hamza younes hamza</x:t>
-  </x:si>
-  <x:si>
     <x:t>4240043</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Ahmed attay kamal kamalelden</x:t>
   </x:si>
   <x:si>
+    <x:t>4200368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد علي كمال عويس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ali Kamal Ewis</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240006</x:t>
   </x:si>
   <x:si>
@@ -132,6 +132,15 @@
     <x:t>Habiba Walid Ahmed Ibraheem Hammouda</x:t>
   </x:si>
   <x:si>
+    <x:t>4240015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد مصطفى محمد عبدالرحمن بيومى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Mostafa Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230145</x:t>
   </x:si>
   <x:si>
@@ -256,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Farah Ahmed Kamal Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماهي تامر حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahy tamer hassan Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210287</x:t>
@@ -497,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -807,7 +825,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.060625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.460625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -952,7 +970,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6703438657</x:v>
+        <x:v>45907.6685705208</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -984,7 +1002,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6685705208</x:v>
+        <x:v>45907.6651039005</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +1034,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651039005</x:v>
+        <x:v>45927.4158216088</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1240,7 +1258,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6672243056</x:v>
+        <x:v>45927.4698060185</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1290,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6648645833</x:v>
+        <x:v>45907.6672243056</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6644150463</x:v>
+        <x:v>45906.6648645833</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45906.6644150463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.665363044</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4149654745</x:v>
+        <x:v>45906.665363044</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.4149654745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45906.415122419</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45906.6678304745</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4491407407</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45927.4257630787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.3048273958</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2139,70 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45912.3048273958</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Lecture-35361.xlsx
+++ b/downloaded_files/SBES251_Lecture-35361.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,15 +193,6 @@
   </x:si>
   <x:si>
     <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عاليه طارق عمر طلبه زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230338</x:t>
@@ -515,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +806,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1482,7 +1473,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.415122419</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1514,7 +1505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1546,7 +1537,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45929.605106331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1578,7 +1569,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6678304745</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1610,7 +1601,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1642,7 +1633,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1674,7 +1665,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1706,7 +1697,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1738,7 +1729,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1770,7 +1761,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1802,7 +1793,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1834,7 +1825,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1866,7 +1857,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1898,7 +1889,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1930,7 +1921,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45927.4257630787</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1962,7 +1953,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1994,7 +1985,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2026,7 +2017,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2058,7 +2049,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2090,7 +2081,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2122,7 +2113,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2154,7 +2145,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45912.3048273958</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2171,38 +2162,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45912.3048273958</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Lecture-35361.xlsx
+++ b/downloaded_files/SBES251_Lecture-35361.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230338</x:t>
@@ -506,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -806,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1473,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.7235268171</x:v>
+        <x:v>45934.8796143866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1505,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414927581</x:v>
+        <x:v>45907.7235268171</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1537,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45929.605106331</x:v>
+        <x:v>45907.414927581</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1569,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4153362616</x:v>
+        <x:v>45929.605106331</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1601,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4156383102</x:v>
+        <x:v>45907.4153362616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1633,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151491898</x:v>
+        <x:v>45907.4156383102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1665,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6658774306</x:v>
+        <x:v>45907.4151491898</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1697,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45906.6658774306</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1729,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4146040509</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1761,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6645733449</x:v>
+        <x:v>45906.4146040509</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1793,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4256484144</x:v>
+        <x:v>45906.6645733449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4151915856</x:v>
+        <x:v>45909.4256484144</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4145670486</x:v>
+        <x:v>45906.4151915856</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4150543634</x:v>
+        <x:v>45907.4145670486</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1921,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45907.4150543634</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1953,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4169562847</x:v>
+        <x:v>45927.4257630787</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1985,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.4169562847</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2017,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.415450081</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2049,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4152314005</x:v>
+        <x:v>45907.415450081</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2081,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4152550116</x:v>
+        <x:v>45907.4152314005</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2113,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45906.4152550116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2145,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.3048273958</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2162,6 +2171,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45912.3048273958</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
